--- a/medicine/Pharmacie/Chimiogénomique/Chimiogénomique.xlsx
+++ b/medicine/Pharmacie/Chimiogénomique/Chimiogénomique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chimiog%C3%A9nomique</t>
+          <t>Chimiogénomique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La chimiogénomique (chimio, racine française) ou chemogénomique (chemo, racine latine ; provenant du mot anglais chemogenomics) peut être définie comme la science ayant pour objet l'étude de la réponse du génome à un composé chimique. 
 Cependant, les avancées technologiques simultanées dans les domaines de la biologie (séquençage des génomes) et de la chimie (Microplaques de composés chimiques) modifient les processus de recherche dans ce domaine scientifique.
